--- a/reportes/10.10.2.78.xlsx
+++ b/reportes/10.10.2.78.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t xml:space="preserve">LOPEZ  HERNANDEZ  LUZ  </t>
-  </si>
-  <si>
-    <t>2008-73774/201761745</t>
+    <t>GUTIERREZ  RODRIGUEZ  ISIDRO  ANTONIO</t>
+  </si>
+  <si>
+    <t>/201761926</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,16 +49,16 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1951-10-31</t>
-  </si>
-  <si>
-    <t>66</t>
+    <t>1971-10-09</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>GUATEMALA</t>
   </si>
   <si>
-    <t>FEMENINO</t>
+    <t>MASCULINO</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -76,13 +76,13 @@
     <t>CASADO</t>
   </si>
   <si>
-    <t>AMA DE CASA</t>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>NO PRESENTO</t>
+    <t>N.T.</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
+    <t>1946786950101</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,22 +97,22 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t xml:space="preserve">CLARA ORDOÑEZ </t>
-  </si>
-  <si>
-    <t>HIJA</t>
-  </si>
-  <si>
-    <t>sector 2 lote 3 Santiago los Caballeros z 6</t>
-  </si>
-  <si>
-    <t>48741489</t>
+    <t>ESPERANZA CASTILLO</t>
+  </si>
+  <si>
+    <t>ESPOSA</t>
+  </si>
+  <si>
+    <t>24 calle 3-28 z. 3</t>
+  </si>
+  <si>
+    <t>58772234</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 8:43:25</t>
+    <t>Hora: 11:45:49</t>
   </si>
   <si>
     <t>Area de urgencia: CIRUGIA</t>

--- a/reportes/10.10.2.78.xlsx
+++ b/reportes/10.10.2.78.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>HOSPITAL GENERAL SAN JUAN DE DIOS</t>
   </si>
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>GUTIERREZ  RODRIGUEZ  ISIDRO  ANTONIO</t>
-  </si>
-  <si>
-    <t>/201761926</t>
+    <t xml:space="preserve">XX  XX MASCULINO     </t>
+  </si>
+  <si>
+    <t>/201762652</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1971-10-09</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
+    <t>1991-10-24</t>
+  </si>
+  <si>
+    <t>26 AÑOS APROX</t>
+  </si>
+  <si>
+    <t>CAPITAL</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -73,16 +73,10 @@
     <t>Documento de Identificación</t>
   </si>
   <si>
-    <t>CASADO</t>
-  </si>
-  <si>
-    <t>N.T.</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t>1946786950101</t>
+    <t/>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,28 +91,19 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>ESPERANZA CASTILLO</t>
-  </si>
-  <si>
-    <t>ESPOSA</t>
-  </si>
-  <si>
-    <t>24 calle 3-28 z. 3</t>
-  </si>
-  <si>
-    <t>58772234</t>
+    <t>IGNORADA</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 11:45:49</t>
+    <t>Hora: 15:50:19</t>
   </si>
   <si>
     <t>Area de urgencia: CIRUGIA</t>
   </si>
   <si>
-    <t>23/10/2017</t>
+    <t>24/10/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>
@@ -139,9 +124,6 @@
     <t xml:space="preserve">Tipo de Consulta </t>
   </si>
   <si>
-    <t>urgencia</t>
-  </si>
-  <si>
     <t>URGENCIA</t>
   </si>
   <si>
@@ -149,9 +131,6 @@
   </si>
   <si>
     <t>MOTIVO DE CONSULTA</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>HISTORIA DE LA ENFERMEDAD</t>
@@ -1014,70 +993,68 @@
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="17"/>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H13" s="14"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -1085,35 +1062,33 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -1122,11 +1097,11 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1135,7 +1110,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -1147,7 +1122,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1169,7 +1144,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1181,7 +1156,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1203,7 +1178,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1215,7 +1190,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1309,13 +1284,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="F34" s="35" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -1326,7 +1301,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1338,13 +1313,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -1354,7 +1329,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -1424,7 +1399,7 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>

--- a/reportes/10.10.2.78.xlsx
+++ b/reportes/10.10.2.78.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>HOSPITAL GENERAL SAN JUAN DE DIOS</t>
   </si>
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t xml:space="preserve">XX  XX MASCULINO     </t>
-  </si>
-  <si>
-    <t>/201762652</t>
+    <t>PANTÒ  QUINO  MARCO  TULIO</t>
+  </si>
+  <si>
+    <t>/201769606</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1991-10-24</t>
-  </si>
-  <si>
-    <t>26 AÑOS APROX</t>
-  </si>
-  <si>
-    <t>CAPITAL</t>
+    <t>1991-05-15</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -73,12 +73,15 @@
     <t>Documento de Identificación</t>
   </si>
   <si>
-    <t/>
+    <t>SOLTERO</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
+    <t>1787185561402</t>
+  </si>
+  <si>
     <t>En caso de emergencia notificar a:</t>
   </si>
   <si>
@@ -91,19 +94,28 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>IGNORADA</t>
+    <t>ISABEL AJCU</t>
+  </si>
+  <si>
+    <t>ESPOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ-15 L. 3C EL ANEXO </t>
+  </si>
+  <si>
+    <t>5487 4476</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 15:50:19</t>
+    <t>Hora: 15:51:40</t>
   </si>
   <si>
     <t>Area de urgencia: CIRUGIA</t>
   </si>
   <si>
-    <t>24/10/2017</t>
+    <t>10/11/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>
@@ -993,10 +1005,12 @@
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
@@ -1004,57 +1018,57 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="17"/>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H13" s="14"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -1062,29 +1076,29 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -1097,11 +1111,11 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1110,7 +1124,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -1122,7 +1136,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1144,7 +1158,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1156,7 +1170,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1178,7 +1192,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1190,7 +1204,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1284,13 +1298,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="F34" s="35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -1301,7 +1315,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1313,13 +1327,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -1329,7 +1343,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -1399,7 +1413,7 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>

--- a/reportes/10.10.2.78.xlsx
+++ b/reportes/10.10.2.78.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>PANTÒ  QUINO  MARCO  TULIO</t>
-  </si>
-  <si>
-    <t>/201769606</t>
+    <t>TIC  SINAY  OLGA  MARIZELA</t>
+  </si>
+  <si>
+    <t>/201773493</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,37 +49,40 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1991-05-15</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>1970-12-03</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>SAN PEDRO AYAMPUC</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Ocupación</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Documento de Identificación</t>
+  </si>
+  <si>
+    <t>CASADO</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>Estado Civil</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>Documento de Identificación</t>
-  </si>
-  <si>
-    <t>SOLTERO</t>
-  </si>
-  <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>1787185561402</t>
+    <t>1988222350107</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -94,28 +97,25 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>ISABEL AJCU</t>
-  </si>
-  <si>
-    <t>ESPOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ-15 L. 3C EL ANEXO </t>
-  </si>
-  <si>
-    <t>5487 4476</t>
+    <t>CARLOS CUYUN</t>
+  </si>
+  <si>
+    <t>ESPOSO</t>
+  </si>
+  <si>
+    <t>5582 1989</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 15:51:40</t>
+    <t>Hora: 15:50:25</t>
   </si>
   <si>
     <t>Area de urgencia: CIRUGIA</t>
   </si>
   <si>
-    <t>10/11/2017</t>
+    <t>20/11/2017</t>
   </si>
   <si>
     <t>MEDICINA</t>
@@ -1010,47 +1010,47 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="17"/>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
@@ -1136,7 +1136,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>

--- a/reportes/10.10.2.78.xlsx
+++ b/reportes/10.10.2.78.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>HOSPITAL GENERAL SAN JUAN DE DIOS</t>
   </si>
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>TIC  SINAY  OLGA  MARIZELA</t>
-  </si>
-  <si>
-    <t>/201773493</t>
+    <t>GUTIERREZ  ARIAS  CESAR  OVIDIO</t>
+  </si>
+  <si>
+    <t>201356737/201774464</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,16 +49,16 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1970-12-03</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>SAN PEDRO AYAMPUC</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
+    <t>1970-06-23</t>
+  </si>
+  <si>
+    <t>47 AÑOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPITAL </t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -76,73 +76,82 @@
     <t>CASADO</t>
   </si>
   <si>
+    <t>TRANSPORTISTA</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
+    <t>2561480150101</t>
+  </si>
+  <si>
+    <t>En caso de emergencia notificar a:</t>
+  </si>
+  <si>
+    <t>Parentesco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direccion </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>MAGDA PEREZ</t>
+  </si>
+  <si>
+    <t>ESPOSA</t>
+  </si>
+  <si>
+    <t>24 AV 22-95 Z5 LA PALMITA</t>
+  </si>
+  <si>
+    <t>23354376</t>
+  </si>
+  <si>
+    <t>Fecha de la asistencia Médica</t>
+  </si>
+  <si>
+    <t>Hora: 7:51:41</t>
+  </si>
+  <si>
+    <t>Area de urgencia: CIRUGIA</t>
+  </si>
+  <si>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>MEDICINA</t>
+  </si>
+  <si>
+    <t>CIRUGIA</t>
+  </si>
+  <si>
+    <t>TRAUMA</t>
+  </si>
+  <si>
+    <t>OBSTETRICIA</t>
+  </si>
+  <si>
+    <t>GINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Consulta </t>
+  </si>
+  <si>
+    <t>urgencia</t>
+  </si>
+  <si>
+    <t>URGENCIA</t>
+  </si>
+  <si>
+    <t>CONSULTA EXTERNA EXTEMPORANEA</t>
+  </si>
+  <si>
+    <t>MOTIVO DE CONSULTA</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>1988222350107</t>
-  </si>
-  <si>
-    <t>En caso de emergencia notificar a:</t>
-  </si>
-  <si>
-    <t>Parentesco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direccion </t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>CARLOS CUYUN</t>
-  </si>
-  <si>
-    <t>ESPOSO</t>
-  </si>
-  <si>
-    <t>5582 1989</t>
-  </si>
-  <si>
-    <t>Fecha de la asistencia Médica</t>
-  </si>
-  <si>
-    <t>Hora: 15:50:25</t>
-  </si>
-  <si>
-    <t>Area de urgencia: CIRUGIA</t>
-  </si>
-  <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>MEDICINA</t>
-  </si>
-  <si>
-    <t>CIRUGIA</t>
-  </si>
-  <si>
-    <t>TRAUMA</t>
-  </si>
-  <si>
-    <t>OBSTETRICIA</t>
-  </si>
-  <si>
-    <t>GINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Consulta </t>
-  </si>
-  <si>
-    <t>URGENCIA</t>
-  </si>
-  <si>
-    <t>CONSULTA EXTERNA EXTEMPORANEA</t>
-  </si>
-  <si>
-    <t>MOTIVO DE CONSULTA</t>
   </si>
   <si>
     <t>HISTORIA DE LA ENFERMEDAD</t>
@@ -1050,25 +1059,25 @@
         <v>28</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="14"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -1076,33 +1085,35 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -1111,11 +1122,11 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1124,7 +1135,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -1136,7 +1147,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1158,7 +1169,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1170,7 +1181,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1192,7 +1203,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1204,7 +1215,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1298,13 +1309,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="F34" s="35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -1315,7 +1326,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1327,13 +1338,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -1343,7 +1354,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -1413,7 +1424,7 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
